--- a/Data_frame/balancos_definitivos/BISA3.xlsx
+++ b/Data_frame/balancos_definitivos/BISA3.xlsx
@@ -7842,7 +7842,7 @@
         <v>503256.992</v>
       </c>
       <c r="P57" t="n">
-        <v>549756.928</v>
+        <v>549757.056</v>
       </c>
       <c r="Q57" t="n">
         <v>483612.992</v>
@@ -7853,75 +7853,29 @@
       <c r="S57" t="n">
         <v>648334.976</v>
       </c>
-      <c r="T57" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0</v>
-      </c>
-      <c r="V57" t="n">
-        <v>0</v>
-      </c>
-      <c r="W57" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>0</v>
-      </c>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7981,75 +7935,29 @@
       <c r="S58" t="n">
         <v>-21749</v>
       </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP58" t="n">
-        <v>0</v>
-      </c>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
+      <c r="AO58" t="inlineStr"/>
+      <c r="AP58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8098,7 +8006,7 @@
         <v>486172</v>
       </c>
       <c r="P59" t="n">
-        <v>537946.112</v>
+        <v>537946.048</v>
       </c>
       <c r="Q59" t="n">
         <v>467558.016</v>
@@ -8122,7 +8030,7 @@
         <v>1197691.008</v>
       </c>
       <c r="X59" t="n">
-        <v>917803.008</v>
+        <v>917802.944</v>
       </c>
       <c r="Y59" t="n">
         <v>668128</v>
@@ -8170,7 +8078,7 @@
         <v>318351.008</v>
       </c>
       <c r="AN59" t="n">
-        <v>215652.096</v>
+        <v>215652.048</v>
       </c>
       <c r="AO59" t="n">
         <v>235988</v>
@@ -8226,7 +8134,7 @@
         <v>-319700.992</v>
       </c>
       <c r="P60" t="n">
-        <v>-369773.056</v>
+        <v>-369773.024</v>
       </c>
       <c r="Q60" t="n">
         <v>-303424.992</v>
@@ -8238,7 +8146,7 @@
         <v>-401911.008</v>
       </c>
       <c r="T60" t="n">
-        <v>-744505.9840000001</v>
+        <v>-744506.048</v>
       </c>
       <c r="U60" t="n">
         <v>-510222.016</v>
@@ -8250,7 +8158,7 @@
         <v>-894246.976</v>
       </c>
       <c r="X60" t="n">
-        <v>-674939.904</v>
+        <v>-674940.032</v>
       </c>
       <c r="Y60" t="n">
         <v>-526372.992</v>
@@ -8262,7 +8170,7 @@
         <v>-739740.992</v>
       </c>
       <c r="AB60" t="n">
-        <v>-839934.08</v>
+        <v>-839934.0159999999</v>
       </c>
       <c r="AC60" t="n">
         <v>-641558.0159999999</v>
@@ -8274,7 +8182,7 @@
         <v>-843740.032</v>
       </c>
       <c r="AF60" t="n">
-        <v>-875300.8639999999</v>
+        <v>-875300.992</v>
       </c>
       <c r="AG60" t="n">
         <v>-472308.992</v>
@@ -8298,7 +8206,7 @@
         <v>-350815.008</v>
       </c>
       <c r="AN60" t="n">
-        <v>-315560.96</v>
+        <v>-315561.024</v>
       </c>
       <c r="AO60" t="n">
         <v>-278948</v>
@@ -8330,7 +8238,7 @@
         <v>36807</v>
       </c>
       <c r="H61" t="n">
-        <v>85892</v>
+        <v>85892.008</v>
       </c>
       <c r="I61" t="n">
         <v>61643</v>
@@ -8342,7 +8250,7 @@
         <v>97339</v>
       </c>
       <c r="L61" t="n">
-        <v>49034.976</v>
+        <v>49034.992</v>
       </c>
       <c r="M61" t="n">
         <v>90877</v>
@@ -8378,7 +8286,7 @@
         <v>303444</v>
       </c>
       <c r="X61" t="n">
-        <v>242862.976</v>
+        <v>242862.96</v>
       </c>
       <c r="Y61" t="n">
         <v>141755.008</v>
@@ -8426,7 +8334,7 @@
         <v>-32464</v>
       </c>
       <c r="AN61" t="n">
-        <v>-99908.992</v>
+        <v>-99908.984</v>
       </c>
       <c r="AO61" t="n">
         <v>-42960</v>
@@ -8622,7 +8530,7 @@
         <v>-49616</v>
       </c>
       <c r="T63" t="n">
-        <v>-15756.992</v>
+        <v>-15757</v>
       </c>
       <c r="U63" t="n">
         <v>-39240</v>
@@ -8697,61 +8605,25 @@
           <t xml:space="preserve">Perdas pela Não Recuperabilidade de Ativos </t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
       <c r="U64" t="n">
         <v>0</v>
       </c>
@@ -9298,7 +9170,7 @@
         <v>-43191</v>
       </c>
       <c r="AF68" t="n">
-        <v>10854.992</v>
+        <v>10855</v>
       </c>
       <c r="AG68" t="n">
         <v>-59837</v>
@@ -9322,7 +9194,7 @@
         <v>-18966</v>
       </c>
       <c r="AN68" t="n">
-        <v>-7326.992</v>
+        <v>-7327</v>
       </c>
       <c r="AO68" t="n">
         <v>-53741</v>
@@ -9542,7 +9414,7 @@
         <v>-54780</v>
       </c>
       <c r="AB70" t="n">
-        <v>-60853.008</v>
+        <v>-60853</v>
       </c>
       <c r="AC70" t="n">
         <v>-63937</v>
@@ -9554,7 +9426,7 @@
         <v>-62684</v>
       </c>
       <c r="AF70" t="n">
-        <v>-71173.984</v>
+        <v>-71173.992</v>
       </c>
       <c r="AG70" t="n">
         <v>-87827</v>
@@ -9578,7 +9450,7 @@
         <v>-39307</v>
       </c>
       <c r="AN70" t="n">
-        <v>-30300</v>
+        <v>-30299.992</v>
       </c>
       <c r="AO70" t="n">
         <v>-66546</v>
@@ -9645,75 +9517,29 @@
       <c r="S71" t="n">
         <v>0</v>
       </c>
-      <c r="T71" t="n">
-        <v>0</v>
-      </c>
-      <c r="U71" t="n">
-        <v>0</v>
-      </c>
-      <c r="V71" t="n">
-        <v>0</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0</v>
-      </c>
-      <c r="X71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>0</v>
-      </c>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr"/>
+      <c r="AJ71" t="inlineStr"/>
+      <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
+      <c r="AO71" t="inlineStr"/>
+      <c r="AP71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9773,75 +9599,29 @@
       <c r="S72" t="n">
         <v>0</v>
       </c>
-      <c r="T72" t="n">
-        <v>0</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>0</v>
-      </c>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="inlineStr"/>
+      <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
+      <c r="AO72" t="inlineStr"/>
+      <c r="AP72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9901,75 +9681,29 @@
       <c r="S73" t="n">
         <v>0</v>
       </c>
-      <c r="T73" t="n">
-        <v>0</v>
-      </c>
-      <c r="U73" t="n">
-        <v>0</v>
-      </c>
-      <c r="V73" t="n">
-        <v>0</v>
-      </c>
-      <c r="W73" t="n">
-        <v>0</v>
-      </c>
-      <c r="X73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP73" t="n">
-        <v>0</v>
-      </c>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
+      <c r="AO73" t="inlineStr"/>
+      <c r="AP73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10006,7 +9740,7 @@
         <v>39448</v>
       </c>
       <c r="L74" t="n">
-        <v>-4258.016</v>
+        <v>-4258.008</v>
       </c>
       <c r="M74" t="n">
         <v>14310</v>
@@ -10030,7 +9764,7 @@
         <v>104871</v>
       </c>
       <c r="T74" t="n">
-        <v>131582.016</v>
+        <v>131582.024</v>
       </c>
       <c r="U74" t="n">
         <v>89456</v>
@@ -10042,7 +9776,7 @@
         <v>144815.008</v>
       </c>
       <c r="X74" t="n">
-        <v>98740</v>
+        <v>98739.992</v>
       </c>
       <c r="Y74" t="n">
         <v>-7449</v>
@@ -10066,7 +9800,7 @@
         <v>-31443</v>
       </c>
       <c r="AF74" t="n">
-        <v>-432663.968</v>
+        <v>-432664</v>
       </c>
       <c r="AG74" t="n">
         <v>-61155</v>
@@ -10413,75 +10147,29 @@
       <c r="S77" t="n">
         <v>0</v>
       </c>
-      <c r="T77" t="n">
-        <v>0</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0</v>
-      </c>
-      <c r="V77" t="n">
-        <v>0</v>
-      </c>
-      <c r="W77" t="n">
-        <v>0</v>
-      </c>
-      <c r="X77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP77" t="n">
-        <v>0</v>
-      </c>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="inlineStr"/>
+      <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="inlineStr"/>
+      <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
+      <c r="AN77" t="inlineStr"/>
+      <c r="AO77" t="inlineStr"/>
+      <c r="AP77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10541,75 +10229,29 @@
       <c r="S78" t="n">
         <v>0</v>
       </c>
-      <c r="T78" t="n">
-        <v>0</v>
-      </c>
-      <c r="U78" t="n">
-        <v>0</v>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>0</v>
-      </c>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
+      <c r="AI78" t="inlineStr"/>
+      <c r="AJ78" t="inlineStr"/>
+      <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
+      <c r="AN78" t="inlineStr"/>
+      <c r="AO78" t="inlineStr"/>
+      <c r="AP78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10798,7 +10440,7 @@
         <v>80823</v>
       </c>
       <c r="T80" t="n">
-        <v>97637.984</v>
+        <v>97637.992</v>
       </c>
       <c r="U80" t="n">
         <v>65806</v>
@@ -10810,7 +10452,7 @@
         <v>107686</v>
       </c>
       <c r="X80" t="n">
-        <v>75122</v>
+        <v>75122.008</v>
       </c>
       <c r="Y80" t="n">
         <v>-16314</v>
@@ -10822,7 +10464,7 @@
         <v>17235</v>
       </c>
       <c r="AB80" t="n">
-        <v>-29589.024</v>
+        <v>-29589</v>
       </c>
       <c r="AC80" t="n">
         <v>-47709</v>
@@ -10846,7 +10488,7 @@
         <v>-447904.992</v>
       </c>
       <c r="AJ80" t="n">
-        <v>-533837.056</v>
+        <v>-533837.024</v>
       </c>
       <c r="AK80" t="n">
         <v>-138295.008</v>
@@ -10858,7 +10500,7 @@
         <v>-203040</v>
       </c>
       <c r="AN80" t="n">
-        <v>-440086.016</v>
+        <v>-440086.048</v>
       </c>
       <c r="AO80" t="n">
         <v>-278128.992</v>
